--- a/data/SETcards.xlsx
+++ b/data/SETcards.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Card type</t>
   </si>
@@ -116,6 +116,42 @@
   </si>
   <si>
     <t>3DRL</t>
+  </si>
+  <si>
+    <t>2DRE</t>
+  </si>
+  <si>
+    <t>2OPF</t>
+  </si>
+  <si>
+    <t>2DGF</t>
+  </si>
+  <si>
+    <t>3SRE</t>
+  </si>
+  <si>
+    <t>2ORF</t>
+  </si>
+  <si>
+    <t>2DPF</t>
+  </si>
+  <si>
+    <t>1SRF</t>
+  </si>
+  <si>
+    <t>3SRL</t>
+  </si>
+  <si>
+    <t>2DGL</t>
+  </si>
+  <si>
+    <t>1DGE</t>
+  </si>
+  <si>
+    <t>1DRL</t>
+  </si>
+  <si>
+    <t>3SGL</t>
   </si>
 </sst>
 </file>
@@ -449,52 +485,100 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1">
+        <v>101.0</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1">
+        <v>101.0</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1">
+        <v>111.0</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1">
+        <v>104.0</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1">
+        <v>103.0</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1">
+        <v>106.0</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1">
+        <v>109.0</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1">
+        <v>112.0</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1">
+        <v>105.0</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1">
+        <v>107.0</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1">
+        <v>101.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2"/>
